--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dll4-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dll4-Notch1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>36.16916666666667</v>
+        <v>36.75793933333333</v>
       </c>
       <c r="H2">
-        <v>108.5075</v>
+        <v>110.273818</v>
       </c>
       <c r="I2">
-        <v>0.9882701353977675</v>
+        <v>0.9858943139827973</v>
       </c>
       <c r="J2">
-        <v>0.9882701353977674</v>
+        <v>0.9858943139827971</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.908252</v>
+        <v>38.55267666666666</v>
       </c>
       <c r="N2">
-        <v>167.724756</v>
+        <v>115.65803</v>
       </c>
       <c r="O2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="P2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="Q2">
-        <v>2022.15488463</v>
+        <v>1417.116950050949</v>
       </c>
       <c r="R2">
-        <v>18199.39396167</v>
+        <v>12754.05255045854</v>
       </c>
       <c r="S2">
-        <v>0.6337224547159577</v>
+        <v>0.5676929045594877</v>
       </c>
       <c r="T2">
-        <v>0.6337224547159577</v>
+        <v>0.5676929045594876</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>36.16916666666667</v>
+        <v>36.75793933333333</v>
       </c>
       <c r="H3">
-        <v>108.5075</v>
+        <v>110.273818</v>
       </c>
       <c r="I3">
-        <v>0.9882701353977675</v>
+        <v>0.9858943139827973</v>
       </c>
       <c r="J3">
-        <v>0.9882701353977674</v>
+        <v>0.9858943139827971</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>16.112028</v>
       </c>
       <c r="O3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="P3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
       <c r="Q3">
-        <v>194.2528753566667</v>
+        <v>197.4149825869893</v>
       </c>
       <c r="R3">
-        <v>1748.27587821</v>
+        <v>1776.734843282904</v>
       </c>
       <c r="S3">
-        <v>0.06087684476710308</v>
+        <v>0.07908386450697626</v>
       </c>
       <c r="T3">
-        <v>0.06087684476710307</v>
+        <v>0.07908386450697626</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>36.16916666666667</v>
+        <v>36.75793933333333</v>
       </c>
       <c r="H4">
-        <v>108.5075</v>
+        <v>110.273818</v>
       </c>
       <c r="I4">
-        <v>0.9882701353977675</v>
+        <v>0.9858943139827973</v>
       </c>
       <c r="J4">
-        <v>0.9882701353977674</v>
+        <v>0.9858943139827971</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.90822366666667</v>
+        <v>23.02986166666667</v>
       </c>
       <c r="N4">
-        <v>77.724671</v>
+        <v>69.089585</v>
       </c>
       <c r="O4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="P4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="Q4">
-        <v>937.0788598369446</v>
+        <v>846.5302579983921</v>
       </c>
       <c r="R4">
-        <v>8433.709738532501</v>
+        <v>7618.772321985531</v>
       </c>
       <c r="S4">
-        <v>0.2936708359147067</v>
+        <v>0.3391175449163332</v>
       </c>
       <c r="T4">
-        <v>0.2936708359147067</v>
+        <v>0.3391175449163332</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.140037</v>
       </c>
       <c r="I5">
-        <v>0.001275436121472683</v>
+        <v>0.001251989679428792</v>
       </c>
       <c r="J5">
-        <v>0.001275436121472683</v>
+        <v>0.001251989679428792</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>55.908252</v>
+        <v>38.55267666666666</v>
       </c>
       <c r="N5">
-        <v>167.724756</v>
+        <v>115.65803</v>
       </c>
       <c r="O5">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="P5">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="Q5">
-        <v>2.609741295108</v>
+        <v>1.799600394123333</v>
       </c>
       <c r="R5">
-        <v>23.487671655972</v>
+        <v>16.19640354711</v>
       </c>
       <c r="S5">
-        <v>0.0008178659667862458</v>
+        <v>0.0007209146533386282</v>
       </c>
       <c r="T5">
-        <v>0.0008178659667862457</v>
+        <v>0.000720914653338628</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.140037</v>
       </c>
       <c r="I6">
-        <v>0.001275436121472683</v>
+        <v>0.001251989679428792</v>
       </c>
       <c r="J6">
-        <v>0.001275436121472683</v>
+        <v>0.001251989679428792</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>16.112028</v>
       </c>
       <c r="O6">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="P6">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
       <c r="Q6">
         <v>0.250697785004</v>
@@ -818,10 +818,10 @@
         <v>2.256280065036</v>
       </c>
       <c r="S6">
-        <v>7.856609645094407E-05</v>
+        <v>0.0001004287992818335</v>
       </c>
       <c r="T6">
-        <v>7.856609645094405E-05</v>
+        <v>0.0001004287992818334</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.140037</v>
       </c>
       <c r="I7">
-        <v>0.001275436121472683</v>
+        <v>0.001251989679428792</v>
       </c>
       <c r="J7">
-        <v>0.001275436121472683</v>
+        <v>0.001251989679428792</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.90822366666667</v>
+        <v>23.02986166666667</v>
       </c>
       <c r="N7">
-        <v>77.724671</v>
+        <v>69.089585</v>
       </c>
       <c r="O7">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="P7">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="Q7">
-        <v>1.209369972536333</v>
+        <v>1.075010912738333</v>
       </c>
       <c r="R7">
-        <v>10.884329752827</v>
+        <v>9.675098214644999</v>
       </c>
       <c r="S7">
-        <v>0.0003790040582354931</v>
+        <v>0.0004306462268083305</v>
       </c>
       <c r="T7">
-        <v>0.0003790040582354931</v>
+        <v>0.0004306462268083304</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3826160000000001</v>
+        <v>0.4792353333333333</v>
       </c>
       <c r="H8">
-        <v>1.147848</v>
+        <v>1.437706</v>
       </c>
       <c r="I8">
-        <v>0.01045442848075992</v>
+        <v>0.01285369633777395</v>
       </c>
       <c r="J8">
-        <v>0.01045442848075992</v>
+        <v>0.01285369633777395</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.908252</v>
+        <v>38.55267666666666</v>
       </c>
       <c r="N8">
-        <v>167.724756</v>
+        <v>115.65803</v>
       </c>
       <c r="O8">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="P8">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="Q8">
-        <v>21.39139174723201</v>
+        <v>18.47580485324222</v>
       </c>
       <c r="R8">
-        <v>192.5225257250881</v>
+        <v>166.28224367918</v>
       </c>
       <c r="S8">
-        <v>0.006703841229415503</v>
+        <v>0.007401353375128471</v>
       </c>
       <c r="T8">
-        <v>0.006703841229415503</v>
+        <v>0.007401353375128469</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3826160000000001</v>
+        <v>0.4792353333333333</v>
       </c>
       <c r="H9">
-        <v>1.147848</v>
+        <v>1.437706</v>
       </c>
       <c r="I9">
-        <v>0.01045442848075992</v>
+        <v>0.01285369633777395</v>
       </c>
       <c r="J9">
-        <v>0.01045442848075992</v>
+        <v>0.01285369633777395</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>16.112028</v>
       </c>
       <c r="O9">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="P9">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
       <c r="Q9">
-        <v>2.054906568416</v>
+        <v>2.573817703085334</v>
       </c>
       <c r="R9">
-        <v>18.494159115744</v>
+        <v>23.164359327768</v>
       </c>
       <c r="S9">
-        <v>0.0006439864941338594</v>
+        <v>0.001031063842415131</v>
       </c>
       <c r="T9">
-        <v>0.0006439864941338593</v>
+        <v>0.001031063842415131</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3826160000000001</v>
+        <v>0.4792353333333333</v>
       </c>
       <c r="H10">
-        <v>1.147848</v>
+        <v>1.437706</v>
       </c>
       <c r="I10">
-        <v>0.01045442848075992</v>
+        <v>0.01285369633777395</v>
       </c>
       <c r="J10">
-        <v>0.01045442848075992</v>
+        <v>0.01285369633777395</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.90822366666667</v>
+        <v>23.02986166666667</v>
       </c>
       <c r="N10">
-        <v>77.724671</v>
+        <v>69.089585</v>
       </c>
       <c r="O10">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="P10">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="Q10">
-        <v>9.912900906445335</v>
+        <v>11.03672343244555</v>
       </c>
       <c r="R10">
-        <v>89.21610815800801</v>
+        <v>99.33051089201</v>
       </c>
       <c r="S10">
-        <v>0.003106600757210555</v>
+        <v>0.004421279120230349</v>
       </c>
       <c r="T10">
-        <v>0.003106600757210554</v>
+        <v>0.004421279120230349</v>
       </c>
     </row>
   </sheetData>
